--- a/data_thansohoc.xlsx
+++ b/data_thansohoc.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PY-EXCEL\TSH-2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python-Excel\Than so hoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11808" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TuVi" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>So</t>
   </si>
@@ -99,6 +100,201 @@
   </si>
   <si>
     <t>Loi_Khuyen</t>
+  </si>
+  <si>
+    <t>Con_Giap</t>
+  </si>
+  <si>
+    <t>Tong_Quan</t>
+  </si>
+  <si>
+    <t>Su_Nghiep</t>
+  </si>
+  <si>
+    <t>Tai_Loc</t>
+  </si>
+  <si>
+    <t>Tinh_Cam</t>
+  </si>
+  <si>
+    <t>Tý</t>
+  </si>
+  <si>
+    <t>Năm 2026 Bính Ngọ là năm Xung Thái Tuế với tuổi Tý. Cuộc sống có nhiều biến động lớn, "thay da đổi thịt". Cần giữ tâm vững vàng trước sóng gió.</t>
+  </si>
+  <si>
+    <t>Công việc gặp nhiều trắc trở, dễ bị tiểu nhân quấy phá hoặc thay đổi vị trí công tác bất ngờ. "Án binh bất động" là thượng sách.</t>
+  </si>
+  <si>
+    <t>Tiền bạc vào cửa trước ra cửa sau. Tránh đầu tư mạo hiểm, đặc biệt là chứng khoán hay bất động sản lướt sóng.</t>
+  </si>
+  <si>
+    <t>Dễ có mâu thuẫn, cãi vã do áp lực cuộc sống. Cần nhường nhịn để giữ hòa khí gia đình.</t>
+  </si>
+  <si>
+    <t>Sửu</t>
+  </si>
+  <si>
+    <t>Năm Tương Hại Thái Tuế. Tuy không quá xấu như Tý nhưng dễ gặp chuyện thị phi, "làm ơn mắc oán".</t>
+  </si>
+  <si>
+    <t>Công việc trì trệ, nỗ lực nhiều nhưng kết quả chưa xứng đáng. Cẩn trọng giấy tờ, ký tá hợp đồng.</t>
+  </si>
+  <si>
+    <t>Tài lộc trung bình. Chỉ nên tập trung vào công việc chính, chớ ôm đồm nghề tay trái kẻo "xôi hỏng bỏng không".</t>
+  </si>
+  <si>
+    <t>Tình cảm có phần lạnh nhạt. Người độc thân kén chọn, khó tìm được ý trung nhân ưng ý.</t>
+  </si>
+  <si>
+    <t>Dần</t>
+  </si>
+  <si>
+    <t>Năm Tam Hợp (Dần - Ngọ - Tuất). Đây là năm Đại Cát để bứt phá. Thiên thời - Địa lợi - Nhân hòa đều hội tụ.</t>
+  </si>
+  <si>
+    <t>Có quý nhân phù trợ, thăng quan tiến chức hoặc mở rộng quy mô kinh doanh cực tốt. Làm đâu thắng đó.</t>
+  </si>
+  <si>
+    <t>Tiền bạc dồi dào, có lộc từ phương xa đưa tới hoặc trúng thưởng, thừa kế.</t>
+  </si>
+  <si>
+    <t>Đỏ tình đỏ cả bạc. Gia đạo êm ấm, có hỷ tín cưới xin hoặc đón thêm thành viên mới.</t>
+  </si>
+  <si>
+    <t>Mão</t>
+  </si>
+  <si>
+    <t>Năm Phá Thái Tuế. Cẩn thận các mối quan hệ xã giao, dễ bị bạn bè lừa gạt hoặc đâm sau lưng.</t>
+  </si>
+  <si>
+    <t>Công việc có sự thay đổi (chuyển việc, đổi chỗ ngồi). Cần khiêm tốn, tránh phô trương kẻo bị ghen ghét.</t>
+  </si>
+  <si>
+    <t>Hao tài tốn của vì những chuyện không đâu (sửa xe, thuốc men, tiệc tùng). Cần lập kế hoạch chi tiêu chặt chẽ.</t>
+  </si>
+  <si>
+    <t>Dễ nảy sinh nghi ngờ, ghen tuông vô cớ. Cần tin tưởng đối phương hơn.</t>
+  </si>
+  <si>
+    <t>Thìn</t>
+  </si>
+  <si>
+    <t>Một năm Bình Hòa, mọi thứ ở mức ổn định. Không quá đột phá nhưng cũng không có biến cố lớn. Là khoảng lặng để tích lũy.</t>
+  </si>
+  <si>
+    <t>Công việc diễn ra đều đều. Nếu muốn khởi nghiệp thì cần chuẩn bị kỹ, chưa phải thời điểm vàng để bung lụa.</t>
+  </si>
+  <si>
+    <t>Thu nhập ổn định từ lương cứng. Không có nhiều khoản lộc bất ngờ.</t>
+  </si>
+  <si>
+    <t>Tình cảm êm đềm. Là năm tốt để hâm nóng tình cảm vợ chồng bằng những chuyến du lịch ngắn.</t>
+  </si>
+  <si>
+    <t>Tỵ</t>
+  </si>
+  <si>
+    <t>Năm bản lề trước khi bước vào năm tuổi. Có nhiều cơ hội mới mở ra nhưng áp lực công việc cực lớn.</t>
+  </si>
+  <si>
+    <t>Được cấp trên tin tưởng giao trọng trách. Tuy vất vả nhưng học hỏi được nhiều kinh nghiệm quý báu.</t>
+  </si>
+  <si>
+    <t>Tiền kiếm được nhiều nhưng chi tiêu cũng lắm (mua sắm tài sản lớn, sửa nhà).</t>
+  </si>
+  <si>
+    <t>Người độc thân có sức hút mãnh liệt với người khác phái. Dễ thoát ế trong năm nay.</t>
+  </si>
+  <si>
+    <t>Ngọ</t>
+  </si>
+  <si>
+    <t>Năm Tuổi (Trực Thái Tuế). "Lửa thử vàng, gian nan thử sức". Áp lực bủa vây nhưng là cơ hội để chứng minh bản lĩnh.</t>
+  </si>
+  <si>
+    <t>Có nhiều thử thách, cạnh tranh gay gắt tại nơi làm việc. Cần kiên trì, nóng vội là hỏng việc lớn.</t>
+  </si>
+  <si>
+    <t>Tài chính biến động mạnh. Có cơ hội kiếm tiền nhanh nhưng rủi ro cao. Cẩn thận mất mát đồ đạc.</t>
+  </si>
+  <si>
+    <t>Tâm tính nóng nảy thất thường dễ làm tổn thương người bên cạnh. Cần học cách kiềm chế cảm xúc.</t>
+  </si>
+  <si>
+    <t>Mùi</t>
+  </si>
+  <si>
+    <t>Năm Nhị Hợp (Ngọ - Mùi). Mọi việc hanh thông, suôn sẻ. Được bạn bè, đối tác hỗ trợ nhiệt tình.</t>
+  </si>
+  <si>
+    <t>Hợp tác làm ăn thuận lợi. Ký kết được nhiều hợp đồng giá trị. Sự nghiệp thăng tiến như diều gặp gió.</t>
+  </si>
+  <si>
+    <t>Tiền bạc rủng rỉnh. Đầu tư sinh lời tốt. Có thể mua sắm nhà cửa, xe cộ trong năm nay.</t>
+  </si>
+  <si>
+    <t>Tình cảm thăng hoa. Gia đình hạnh phúc, con cái ngoan ngoãn, thành đạt.</t>
+  </si>
+  <si>
+    <t>Thân</t>
+  </si>
+  <si>
+    <t>Một năm Bình Ổn. Sức khỏe và tinh thần đều tốt. Thích hợp để học tập, trau dồi kỹ năng mới.</t>
+  </si>
+  <si>
+    <t>Công việc không có nhiều biến động. Thích hợp để củng cố vị trí hiện tại hơn là nhảy việc.</t>
+  </si>
+  <si>
+    <t>Tài lộc ở mức khá. Có lộc ăn uống, quà cáp biếu tặng thường xuyên.</t>
+  </si>
+  <si>
+    <t>Nhân duyên tốt đẹp. Người độc thân dễ gặp được "nửa kia" qua sự giới thiệu của bạn bè.</t>
+  </si>
+  <si>
+    <t>Dậu</t>
+  </si>
+  <si>
+    <t>Năm có sao Đào Hoa chiếu mệnh. Rất lợi cho những người làm nghệ thuật, kinh doanh, ngoại giao.</t>
+  </si>
+  <si>
+    <t>Được lòng sếp và đồng nghiệp. Công việc trôi chảy nhờ khéo léo trong giao tiếp.</t>
+  </si>
+  <si>
+    <t>Tài lộc khởi sắc, đặc biệt là các nguồn thu phụ hoặc kinh doanh online.</t>
+  </si>
+  <si>
+    <t>Đào hoa quá vượng đôi khi lại phiền phức cho người đã kết hôn (dễ vướng thị phi tình ái). Cần giữ mình.</t>
+  </si>
+  <si>
+    <t>Tuất</t>
+  </si>
+  <si>
+    <t>Năm Tam Hợp (Dần - Ngọ - Tuất). Vận khí cực thịnh, làm ít hưởng nhiều. Là năm gặt hái thành quả sau bao năm vất vả.</t>
+  </si>
+  <si>
+    <t>Cơ hội thăng tiến rõ rệt. Có thể được đề bạt lên vị trí lãnh đạo hoặc quản lý cấp cao.</t>
+  </si>
+  <si>
+    <t>Tiền vào như nước. Có duyên với đất đai, điền sản. Đầu tư đâu thắng đó.</t>
+  </si>
+  <si>
+    <t>Gia đạo an vui. Có tin vui về chuyện con cái hoặc hỷ sự trong dòng họ.</t>
+  </si>
+  <si>
+    <t>Hợi</t>
+  </si>
+  <si>
+    <t>Năm Bình Hòa. Cần chú ý vấn đề sức khỏe và cân bằng cuộc sống - công việc.</t>
+  </si>
+  <si>
+    <t>Công việc ổn định. Cần tránh va chạm với người có chức quyền. "Dĩ hòa vi quý".</t>
+  </si>
+  <si>
+    <t>Tài chính đủ chi tiêu, không dư dả nhiều. Tránh cho vay mượn kẻo mất cả tiền lẫn bạn.</t>
+  </si>
+  <si>
+    <t>Tình cảm bình lặng. Cần quan tâm hơn đến sức khỏe của người lớn tuổi trong nhà.</t>
   </si>
 </sst>
 </file>
@@ -418,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -564,4 +760,246 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data_thansohoc.xlsx
+++ b/data_thansohoc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python-Excel\Than so hoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PY-EXCEL\TSH-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,77 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>So</t>
   </si>
   <si>
-    <t>Thủ lĩnh - Độc lập</t>
-  </si>
-  <si>
-    <t>Hòa giải - Kết nối</t>
-  </si>
-  <si>
-    <t>Sáng tạo - Hoạt ngôn</t>
-  </si>
-  <si>
-    <t>Kỷ luật - Thực tế</t>
-  </si>
-  <si>
-    <t>Tự do - Phiêu lưu</t>
-  </si>
-  <si>
-    <t>Trách nhiệm - Yêu thương</t>
-  </si>
-  <si>
-    <t>Tri thức - Chiêm nghiệm</t>
-  </si>
-  <si>
-    <t>Điều hành - Tài chính</t>
-  </si>
-  <si>
-    <t>Nhân văn - Cho đi</t>
-  </si>
-  <si>
-    <t>Trực giác - Tâm linh</t>
-  </si>
-  <si>
-    <t>Kiến tạo - Vĩ mô</t>
-  </si>
-  <si>
-    <t>Bạn như cây tùng bách đứng một mình. Sức mạnh của bạn nằm ở sự tự chủ. Đừng chờ đợi người khác mở đường, hãy tự bước đi. Nhưng nhớ rằng: "Cứng quá thì dễ gãy", hãy học cách mềm mỏng như nước khi cần thiết.</t>
-  </si>
-  <si>
-    <t>Bạn là dòng nước êm đềm gắn kết mọi người. Sứ mệnh của bạn không phải là tranh đấu, mà là lắng nghe và thấu hiểu. Khi thấy mệt mỏi, hãy quay về chăm sóc nội tâm, đừng gánh vác cảm xúc của người khác quá nhiều.</t>
-  </si>
-  <si>
-    <t>Bạn mang đến tiếng cười và ánh sáng. Lời nói của bạn có sức mạnh chữa lành hoặc gây thương tổn. Hãy dùng sự hài hước để vượt qua áp lực. Khi buồn, hãy viết hoặc nói ra, đừng giữ trong lòng.</t>
-  </si>
-  <si>
-    <t>Bạn là nền móng vững chắc của ngôi nhà. Mọi thứ với bạn cần rõ ràng, quy củ. Đôi khi bạn thấy cuộc đời khô khan, hãy thử thả lỏng một chút. "Vô vi nhi vô bất vi" - đôi khi không làm gì quá sức lại là làm được tất cả.</t>
-  </si>
-  <si>
-    <t>Bạn là cơn gió, không ai nhốt được bạn. Sự bấp bênh đôi khi lại là môi trường để bạn tỏa sáng. Đừng sợ thay đổi, nhưng hãy giữ cho mình một "gốc rễ" (gia đình hoặc nguyên tắc sống) để không bị lạc lối.</t>
-  </si>
-  <si>
-    <t>Bạn là ngọn lửa ấm trong gia đình. Bạn hay lo lắng và ôm đồm. Hãy nhớ: Muốn thương người khác, phải thương mình trước. Đừng để sự hy sinh trở thành gánh nặng khiến mình kiệt sức.</t>
-  </si>
-  <si>
-    <t>Bạn là ngọn đèn soi sáng trong đêm. Cuộc đời bạn sẽ qua nhiều bài học chông gai để ngộ ra chân lý. Đừng buồn vì sự cô đơn, đó là lúc trí tuệ sinh khởi. Hãy tìm về thiên nhiên để nạp năng lượng.</t>
-  </si>
-  <si>
-    <t>Bạn là người kiến tạo vật chất. Tiền bạc và địa vị là thước đo, nhưng đừng để nó làm chủ. Cân bằng giữa "Đời" và "Đạo" là bài toán lớn nhất của bạn. Thành công bền vững nhất là sự bình an trong tâm.</t>
-  </si>
-  <si>
-    <t>Bạn là người gieo hạt giống thiện lành. Bạn thường lo chuyện bao đồng vì lòng trắc ẩn lớn. Hãy học cách buông bỏ quá khứ, tha thứ cho người và cho mình để tâm hồn nhẹ nhõm.</t>
-  </si>
-  <si>
-    <t>Bạn có khả năng cảm nhận những điều người khác không thấy. Hãy tin vào trực giác mách bảo. Sứ mệnh của bạn là khai sáng, nhưng hãy giữ đôi chân chạm đất.</t>
-  </si>
-  <si>
-    <t>Bạn có tầm nhìn lớn và đôi tay khéo léo. Bạn sinh ra để làm những việc lớn lao cho cộng đồng. Đừng để những nỗi lo cơm áo gạo tiền vụn vặt làm mòn đi ý chí lớn của bạn.</t>
-  </si>
-  <si>
     <t>Tu_Khoa</t>
   </si>
   <si>
@@ -295,14 +229,622 @@
   </si>
   <si>
     <t>Tình cảm bình lặng. Cần quan tâm hơn đến sức khỏe của người lớn tuổi trong nhà.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số 1 đại diện cho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>năng lượng khởi đầu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – nơi mọi thứ được sinh ra từ ý chí cá nhân. Người mang năng lượng số 1 thường có xu hướng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tự đứng lên, tự quyết định và tự chịu trách nhiệm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cho con đường của mình. Họ không chờ đợi sự cho phép, cũng không thích bị dẫn dắt quá chi tiết.</t>
+    </r>
+  </si>
+  <si>
+    <t>Khởi đầu – Lãnh đạo – Cá tính – Tự chủ – Dẫn dắt – Ý chí – Tiên phong – Bản lĩnh</t>
+  </si>
+  <si>
+    <t>Hòa hợp – Nhạy cảm – Hợp tác – Lắng nghe – Đồng cảm – Kết nối – Cân bằng – Ngoại giao</t>
+  </si>
+  <si>
+    <t>Sáng tạo – Biểu đạt – Giao tiếp – Cảm xúc – Truyền cảm hứng – Nghệ thuật – Niềm vui</t>
+  </si>
+  <si>
+    <t>Kỷ luật – Cấu trúc – Ổn định – Thực tế – Trách nhiệm – Kiên trì – Xây dựng</t>
+  </si>
+  <si>
+    <t>Tự do – Thay đổi – Trải nghiệm – Linh hoạt – Phiêu lưu – Thích nghi – Khám phá</t>
+  </si>
+  <si>
+    <t>Trách nhiệm – Gia đình – Yêu thương – Chăm sóc – Phục vụ – Cân bằng – Chữa lành</t>
+  </si>
+  <si>
+    <t>Nội tâm – Trí tuệ – Phân tích – Chiêm nghiệm – Tĩnh lặng – Nhận thức – Tìm hiểu</t>
+  </si>
+  <si>
+    <t>Thành tựu – Quyền lực – Tài chính – Lãnh đạo – Quản trị – Thực tế – Trách nhiệm</t>
+  </si>
+  <si>
+    <t>Nhân ái – Hoàn tất – Buông bỏ – Phụng sự – Toàn diện – Trưởng thành – Cảm thông</t>
+  </si>
+  <si>
+    <t>Trực giác – Khai sáng – Nhạy cảm – Truyền cảm hứng – Nhận thức – Ánh sáng – Tâm linh</t>
+  </si>
+  <si>
+    <t>Kiến tạo – Thực thi – Trách nhiệm lớn – Hệ thống – Di sản – Lãnh đạo – Bền vững</t>
+  </si>
+  <si>
+    <t>Phụng sự – Chữa lành – Tình yêu vô điều kiện – Bao dung – Dẫn dắt – Hy sinh – Nhân văn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số 2 mang năng lượng của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sự tinh tế, hòa hợp và cảm nhận</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Đây là những người có khả năng “đọc không khí”, cảm được cảm xúc người khác mà không cần lời nói. Họ không tìm kiếm ánh đèn sân khấu, nhưng lại đóng vai trò </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chất keo kết nối</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trong các mối quan hệ.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số 3 là năng lượng của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sự sống động, sáng tạo và biểu đạt cảm xúc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Những người mang số này thường có khả năng diễn đạt suy nghĩ bằng lời nói, hình ảnh, cảm xúc hoặc nghệ thuật một cách tự nhiên. Họ mang đến niềm vui, sự tươi mới và cảm hứng cho môi trường xung quanh.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số 4 đại diện cho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nền tảng, cấu trúc và sự ổn định</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Đây là những người thực tế, đáng tin và có khả năng biến ý tưởng thành hệ thống vận hành được. Họ không thích những thứ mơ hồ; họ tin vào kế hoạch, kỷ luật và kết quả rõ ràng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số 5 mang năng lượng của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chuyển động và thay đổi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Đây là những người luôn bị thôi thúc bởi trải nghiệm mới, tư duy mới và góc nhìn mới. Họ học tốt nhất thông qua va chạm thực tế, chứ không phải lý thuyết suông.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số 6 là năng lượng của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trách nhiệm, tình yêu và sự chăm sóc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Người số 6 thường cảm thấy mình có trách nhiệm với gia đình, tập thể hoặc cộng đồng. Họ mong muốn tạo ra sự an toàn, ấm áp và hài hòa.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số 7 đại diện cho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chiều sâu nội tâm và trí tuệ bên trong</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Người số 7 có xu hướng đặt câu hỏi về bản chất cuộc sống, tìm kiếm ý nghĩa hơn là thành tích bề mặt. Họ cần không gian riêng để suy nghĩ, học hỏi và kết nối với chính mình.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số 8 là năng lượng của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>quyền lực, thành tựu và quản trị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Người số 8 có khả năng nhìn thấy bức tranh lớn, đưa ra quyết định thực tế và chịu trách nhiệm về kết quả. Họ không sợ thử thách và thường gắn liền với sự nghiệp, tài chính, ảnh hưởng xã hội.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số 9 mang năng lượng của </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kết thúc, bao dung và nhân văn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Đây là những người có cái nhìn rộng, dễ đồng cảm với nỗi đau của người khác và mong muốn đóng góp cho điều lớn hơn bản thân.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số 11 là sự kết hợp giữa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trực giác sâu sắc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ý thức tinh tế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Đây là nhóm người cực kỳ nhạy với môi trường, cảm xúc tập thể và những dòng năng lượng “không nói thành lời”. Họ thường </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cảm trước khi hiểu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, biết trước khi có bằng chứng.
+Người mang số 11 thường có trải nghiệm nội tâm mạnh, dễ bị tác động bởi ánh sáng – bóng tối của cuộc sống. Họ sinh ra để đánh thức nhận thức, truyền cảm hứng, mở ra góc nhìn mới cho người khác – dù đôi khi chính họ không hiểu vì sao mình “khác”
+Nếu sống thấp năng lượng, số 11 dễ rơi vào lo âu, rối loạn cảm xúc, tự nghi ngờ. Nếu sống đúng, họ trở thành ngọn đèn soi đường.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số 22 được gọi là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Master Builder”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – người có khả năng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>biến ý tưởng lớn thành hệ thống thực tế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Nếu số 11 là người nhìn thấy viễn cảnh, thì số 22 là người </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xây nó thành hiện thực</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Người mang số 22 thường có tầm nhìn rộng, tư duy hệ thống và khả năng gánh vác trách nhiệm lớn. Họ không chỉ nghĩ cho cá nhân mà còn cho cộng đồng, tổ chức, xã hội. Đây là nhóm người có thể tạo ra di sản.
+Nếu chưa đủ trưởng thành, số 22 dễ bị áp lực, quá kiểm soát hoặc sợ thất bại. Khi sống đúng, họ là trụ cột vững vàng cho rất nhiều người.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số 33 là năng lượng cao nhất trong Thần Số Học truyền thống – đại diện cho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tình yêu vô điều kiện và sự phụng sự có ý thức</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Người số 33 không chỉ muốn giúp, mà muốn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chữa lành và nâng đỡ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> người khác từ tận gốc.
+Họ thường mang trong mình trái tim lớn, dễ cảm nỗi đau của người khác như của chính mình. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Số 33 sinh ra để làm thầy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, làm người dẫn đường, người chữa lành – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nhưng bài học lớn nhất là không hy sinh bản thân đến kiệt quệ.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>SỐ 1 – NGƯỜI KHỞI XƯỚNG</t>
+  </si>
+  <si>
+    <t>Tieu_De</t>
+  </si>
+  <si>
+    <t>SỐ 2 – SỨ GIẢ HÒA BÌNH</t>
+  </si>
+  <si>
+    <t>SỐ 3 – NGƯỜI BIỂU ĐẠT</t>
+  </si>
+  <si>
+    <t>SỐ 4 – NGƯỜI XÂY DỰNG</t>
+  </si>
+  <si>
+    <t>SỐ 5 – NGƯỜI TỰ DO</t>
+  </si>
+  <si>
+    <t>SỐ 6 – NGƯỜI NUÔI DƯỠNG</t>
+  </si>
+  <si>
+    <t>SỐ 7 – NGƯỜI CHIÊM NGHIỆM</t>
+  </si>
+  <si>
+    <t>SỐ 8 – NGƯỜI THỰC THI</t>
+  </si>
+  <si>
+    <t>SỐ 9 – NGƯỜI HOÀN TẤT</t>
+  </si>
+  <si>
+    <t>SỐ 11 – NGƯỜI KHAI SÁNG</t>
+  </si>
+  <si>
+    <t>SỐ 22 – NGƯỜI KIẾN TẠO</t>
+  </si>
+  <si>
+    <t>SỐ 33 – NGƯỜI PHỤNG SỰ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -330,8 +872,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,153 +1163,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="1" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="27" spans="4:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="35" spans="4:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -766,7 +1443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -779,223 +1456,223 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
